--- a/reports/templates/reportTemplate_register.xlsx
+++ b/reports/templates/reportTemplate_register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/712e76bdfa434146/Documents/Projet 02/moonshot/reports/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="799" documentId="13_ncr:1_{BB587B11-3DD4-41F6-9455-588F5FC05102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B333BBE-DBA9-4BF0-9BDA-266F9F59D90F}"/>
+  <xr:revisionPtr revIDLastSave="972" documentId="13_ncr:1_{BB587B11-3DD4-41F6-9455-588F5FC05102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3520206-101B-41E9-A7E2-2CC48463B786}"/>
   <bookViews>
-    <workbookView xWindow="17580" yWindow="4440" windowWidth="21600" windowHeight="11385" xr2:uid="{9DB76FDD-CFE2-43F9-8644-10A1BAD3A1A8}"/>
+    <workbookView xWindow="5415" yWindow="18930" windowWidth="21600" windowHeight="11385" xr2:uid="{9DB76FDD-CFE2-43F9-8644-10A1BAD3A1A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="212">
   <si>
     <t>Preadvise ID</t>
   </si>
@@ -369,18 +369,6 @@
   </si>
   <si>
     <t>Competition data</t>
-  </si>
-  <si>
-    <t>Number of registration(s) involving 2 to 4 freight forwarders</t>
-  </si>
-  <si>
-    <t>Number of registration(s) involving 5 to 7 freight forwarders</t>
-  </si>
-  <si>
-    <t>Number of registration(s) involving 8 to 11 freight forwarders</t>
-  </si>
-  <si>
-    <t>Number of registration(s) involving more than 12 freight forwarders</t>
   </si>
   <si>
     <t>Number of registration(s) awarding 1 single freight forwarder</t>
@@ -655,9 +643,6 @@
     <t>Tender launch method</t>
   </si>
   <si>
-    <t>Column2</t>
-  </si>
-  <si>
     <t>Customer visit frequency</t>
   </si>
   <si>
@@ -683,18 +668,47 @@
   </si>
   <si>
     <t>Contact email</t>
+  </si>
+  <si>
+    <t>No history</t>
+  </si>
+  <si>
+    <t>Number of registration(s) involving 1 to 2 competitors</t>
+  </si>
+  <si>
+    <t>Number of registration(s) involving 4 to 6 competitors</t>
+  </si>
+  <si>
+    <t>Number of registration(s) involving 7 to 10 competitors</t>
+  </si>
+  <si>
+    <t>Number of registration(s) involving more than 10 competitors</t>
+  </si>
+  <si>
+    <t>Amount of awardee(s)</t>
+  </si>
+  <si>
+    <t>Preadvise record date</t>
+  </si>
+  <si>
+    <t>Number of tenders involved in the following tradelanes</t>
+  </si>
+  <si>
+    <t>Share of tenders involved in the following tradelanes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot; TEU(s)&quot;_-;\-* #,##0.00&quot; TEU(s)&quot;_-;_-* &quot;-&quot;??&quot; TEU(s)&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00&quot; Ton(s)&quot;_-;\-* #,##0.00&quot; Ton(s)&quot;_-;_-* &quot;-&quot;??&quot; Ton(s)&quot;_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00&quot; CMB(s)&quot;_-;\-* #,##0.00&quot; CBM(s)&quot;_-;_-* &quot;-&quot;??&quot; CBM(s)&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00&quot; month(s)&quot;_-;\-* #,##0.00&quot; month(s)&quot;_-;_-* &quot;-&quot;??&quot; month(s)&quot;_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0&quot; day(s)&quot;_-;\-* #,##0&quot; day(s)&quot;_-;_-* &quot;-&quot;??&quot; day(s)&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,7 +943,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1"/>
@@ -945,24 +959,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -987,6 +983,40 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1010,14 +1040,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9EF5C85F-01A4-46CF-9039-EFF5C6FFD4F7}" name="DataTable" displayName="DataTable" ref="A1:CR3" totalsRowShown="0">
-  <autoFilter ref="A1:CR3" xr:uid="{9EF5C85F-01A4-46CF-9039-EFF5C6FFD4F7}"/>
-  <tableColumns count="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9EF5C85F-01A4-46CF-9039-EFF5C6FFD4F7}" name="DataTable" displayName="DataTable" ref="A1:CT3" totalsRowShown="0">
+  <autoFilter ref="A1:CT3" xr:uid="{9EF5C85F-01A4-46CF-9039-EFF5C6FFD4F7}"/>
+  <tableColumns count="98">
     <tableColumn id="1" xr3:uid="{2CB6E984-6BB5-4D7A-A81F-D0601EB90E6A}" name="Register ID"/>
     <tableColumn id="2" xr3:uid="{6FFAC53E-7EFD-47C3-8EFB-8BCEA51789AA}" name="Record date"/>
     <tableColumn id="3" xr3:uid="{A2764E2D-9117-429E-9F02-FB27FCC1E6DA}" name="Last modified date"/>
     <tableColumn id="4" xr3:uid="{15D048F1-8FB1-4B1E-84D8-430258D1F522}" name="Is preadvised"/>
     <tableColumn id="5" xr3:uid="{C111619E-5FC8-4255-9FEC-05AACDE8DC3E}" name="Preadvise ID"/>
+    <tableColumn id="76" xr3:uid="{BF182274-4B34-4855-BABC-C79D0835294E}" name="Preadvise record date"/>
     <tableColumn id="6" xr3:uid="{6392E2E5-21B3-4B4B-9015-823C93F8FFEE}" name="Country location"/>
     <tableColumn id="49" xr3:uid="{C2AFBDFF-575D-4E51-AC92-755B114A24BE}" name="Tender office"/>
     <tableColumn id="50" xr3:uid="{0C38B6AD-28A7-42F7-8761-2DA3933009BA}" name="World area"/>
@@ -1097,6 +1128,7 @@
     <tableColumn id="87" xr3:uid="{0081580C-DE5A-4652-A9F2-D917340A32EA}" name="Requirements - Control tower"/>
     <tableColumn id="88" xr3:uid="{7C62C9D9-B3A8-4651-8989-2DE536A016E7}" name="Amount of rounds"/>
     <tableColumn id="89" xr3:uid="{F567EB4E-D72C-4106-8956-27877470572C}" name="Tender launch method"/>
+    <tableColumn id="9" xr3:uid="{2858F491-D98D-4B48-BA64-3FDC5BD054B7}" name="No history"/>
     <tableColumn id="44" xr3:uid="{4EF03836-6D72-45BA-9185-E2A26AD160A8}" name="Rhenus Air &amp; Ocean history"/>
     <tableColumn id="45" xr3:uid="{AE16CC0F-5E31-4A0E-B481-07DEC570B18F}" name="Rhenus Road history"/>
     <tableColumn id="46" xr3:uid="{6222B1B2-43D3-44CF-A372-C69FF167F46F}" name="Rhenus Contract Logistics history"/>
@@ -1106,9 +1138,9 @@
     <tableColumn id="92" xr3:uid="{2313FB23-E71A-4862-B5EA-F42457903B65}" name="Customer visit history"/>
     <tableColumn id="93" xr3:uid="{716BE8EA-209E-48FE-8184-80D87DDC5A63}" name="Current service provider"/>
     <tableColumn id="94" xr3:uid="{B7226984-8E16-456F-A6C0-C7634E01B376}" name="Amount of competitors"/>
+    <tableColumn id="43" xr3:uid="{F0A3C84D-B3DA-4A33-B398-CC7FA56D5327}" name="Amount of awardee(s)"/>
     <tableColumn id="95" xr3:uid="{B92014CC-6E49-4451-9E2C-F869F7E1D72A}" name="Decision criteria"/>
     <tableColumn id="96" xr3:uid="{44E237BF-A768-4D13-8426-F53B0C0E94F1}" name="Feedback available"/>
-    <tableColumn id="91" xr3:uid="{21C8AEA3-C585-4CD5-A639-2B09412DBAAA}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1319,11 +1351,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F65E63-F005-4CBF-AE0A-8C9CDC031092}">
   <dimension ref="A1:P130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A34" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A64" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.125" customWidth="1"/>
     <col min="2" max="2" width="24.25" customWidth="1"/>
@@ -1332,7 +1364,7 @@
     <col min="8" max="13" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -1354,10 +1386,10 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" thickTop="1">
+    <row r="2" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1374,33 +1406,21 @@
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="I5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="H5" s="28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1408,57 +1428,26 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="11">
-        <f>COUNTIF(Data!AL2:AL1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <f>COUNTIF(Data!AM2:AM1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="12">
-        <f>COUNTIF(Data!AN2:AN1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="12">
-        <f>COUNTIF(Data!AO2:AO1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="13">
-        <f>COUNTIF(Data!AP2:AP1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" thickTop="1">
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
-      <c r="H7" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="11">
-        <f>COUNTIF(Data!AQ2:AQ1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <f>COUNTIF(Data!AR2:AR1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="12">
-        <f>COUNTIF(Data!AS2:AS1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="12">
-        <f>COUNTIF(Data!AT2:AT1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="13">
-        <f>COUNTIF(Data!AU2:AU1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="I7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
@@ -1468,57 +1457,57 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="11">
+      <c r="H8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="22">
+        <f>COUNTIF(Data!AM2:AM1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="23">
+        <f>COUNTIF(Data!AN2:AN1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="23">
+        <f>COUNTIF(Data!AO2:AO1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="23">
+        <f>COUNTIF(Data!AP2:AP1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="24">
+        <f>COUNTIF(Data!AQ2:AQ1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="H9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="22">
+        <f>COUNTIF(Data!AR2:AR1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="23">
+        <f>COUNTIF(Data!AS2:AS1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="23">
+        <f>COUNTIF(Data!AT2:AT1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="23">
+        <f>COUNTIF(Data!AU2:AU1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="24">
         <f>COUNTIF(Data!AV2:AV1048576,"Yes")</f>
         <v>0</v>
       </c>
-      <c r="J8" s="12">
-        <f>COUNTIF(Data!AW2:AW1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="12">
-        <f>COUNTIF(Data!AX2:AX1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="12">
-        <f>COUNTIF(Data!AY2:AY1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="13">
-        <f>COUNTIF(Data!AZ2:AZ1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1">
-      <c r="B9" s="1"/>
-      <c r="H9" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="11">
-        <f>COUNTIF(Data!BA2:BA1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <f>COUNTIF(Data!BB2:BB1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="12">
-        <f>COUNTIF(Data!BC2:BC1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="12">
-        <f>COUNTIF(Data!BD2:BD1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="13">
-        <f>COUNTIF(Data!BE2:BE1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1">
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -1526,36 +1515,59 @@
         <f>COUNTIF(Data!A2:A1048576,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="14">
+      <c r="H10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="22">
+        <f>COUNTIF(Data!AW2:AW1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="23">
+        <f>COUNTIF(Data!AX2:AX1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="23">
+        <f>COUNTIF(Data!AY2:AY1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="23">
+        <f>COUNTIF(Data!AZ2:AZ1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="24">
+        <f>COUNTIF(Data!BA2:BA1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="H11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="22">
+        <f>COUNTIF(Data!BB2:BB1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="23">
+        <f>COUNTIF(Data!BC2:BC1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="23">
+        <f>COUNTIF(Data!BD2:BD1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="23">
+        <f>COUNTIF(Data!BE2:BE1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="24">
         <f>COUNTIF(Data!BF2:BF1048576,"Yes")</f>
         <v>0</v>
       </c>
-      <c r="J10" s="15">
-        <f>COUNTIF(Data!BG2:BG1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="15">
-        <f>COUNTIF(Data!BH2:BH1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="15">
-        <f>COUNTIF(Data!BI2:BI1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="16">
-        <f>COUNTIF(Data!BJ2:BJ1048576,"Yes")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1">
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B12" s="1">
         <f>COUNTIF(Data!D2:D1048576,"No")</f>
@@ -1568,10 +1580,33 @@
       <c r="E12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1">
+      <c r="H12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="25">
+        <f>COUNTIF(Data!BG2:BG1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="26">
+        <f>COUNTIF(Data!BH2:BH1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="26">
+        <f>COUNTIF(Data!BI2:BI1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="26">
+        <f>COUNTIF(Data!BJ2:BJ1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="27">
+        <f>COUNTIF(Data!BK2:BK1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B13" s="1">
         <f>COUNTIF(Data!D2:D1048576,"Yes")</f>
@@ -1585,14 +1620,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="B14" s="1">
+        <f>COUNTIF(Data!AG2:AG1048576,"Yes")</f>
+        <v>0</v>
+      </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="H15" s="10" t="s">
         <v>71</v>
@@ -1606,12 +1644,12 @@
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>84</v>
       </c>
       <c r="B16" s="1">
-        <f>COUNTIF(Data!G2:G1048576,"AM")</f>
+        <f>COUNTIF(Data!H2:H1048576,"AM")</f>
         <v>0</v>
       </c>
       <c r="D16" s="6">
@@ -1622,12 +1660,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>85</v>
       </c>
       <c r="B17" s="1">
-        <f>COUNTIF(Data!G2:G1048576,"AP")</f>
+        <f>COUNTIF(Data!H2:H1048576,"AP")</f>
         <v>0</v>
       </c>
       <c r="D17" s="6">
@@ -1637,28 +1675,16 @@
       <c r="E17" t="s">
         <v>100</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1">
+      <c r="H17" s="28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>86</v>
       </c>
       <c r="B18" s="1">
-        <f>COUNTIF(Data!G2:G1048576,"EU")</f>
+        <f>COUNTIF(Data!H2:H1048576,"EU")</f>
         <v>0</v>
       </c>
       <c r="D18" s="6">
@@ -1668,62 +1694,31 @@
       <c r="E18" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="19">
-        <f>I6/$B$10</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="20">
-        <f>J6/$B$10</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="20">
-        <f>K6/$B$10</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="20">
-        <f>L6/$B$10</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="21">
-        <f>M6/$B$10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1">
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
-      <c r="H19" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="19">
-        <f>I7/$B$10</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="20">
-        <f>J7/$B$10</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="20">
-        <f>K7/$B$10</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="20">
-        <f>L7/$B$10</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="21">
-        <f>M7/$B$10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1">
+      <c r="I19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="1">
-        <f>COUNTIF(Data!H2:H1048576,"North America")</f>
+        <f>COUNTIF(Data!I2:I1048576,"North America")</f>
         <v>0</v>
       </c>
       <c r="D20" s="6">
@@ -1733,36 +1728,36 @@
       <c r="E20" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="19">
+      <c r="H20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="13">
         <f>I8/$B$10</f>
         <v>0</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="14">
         <f>J8/$B$10</f>
         <v>0</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="14">
         <f>K8/$B$10</f>
         <v>0</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="14">
         <f>L8/$B$10</f>
         <v>0</v>
       </c>
-      <c r="M20" s="21">
+      <c r="M20" s="15">
         <f>M8/$B$10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>82</v>
       </c>
       <c r="B21" s="1">
-        <f>COUNTIFS(Data!H2:H1048576,"Central America",Data!H2:H1048576,"Caribbean")</f>
+        <f>COUNTIFS(Data!I2:I1048576,"Central America",Data!I2:I1048576,"Caribbean")</f>
         <v>0</v>
       </c>
       <c r="D21" s="6">
@@ -1772,36 +1767,36 @@
       <c r="E21" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="19">
+      <c r="H21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="13">
         <f>I9/$B$10</f>
         <v>0</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="14">
         <f>J9/$B$10</f>
         <v>0</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="14">
         <f>K9/$B$10</f>
         <v>0</v>
       </c>
-      <c r="L21" s="20">
+      <c r="L21" s="14">
         <f>L9/$B$10</f>
         <v>0</v>
       </c>
-      <c r="M21" s="21">
+      <c r="M21" s="15">
         <f>M9/$B$10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>81</v>
       </c>
       <c r="B22" s="1">
-        <f>COUNTIF(Data!H2:H1048576,"South America")</f>
+        <f>COUNTIF(Data!I2:I1048576,"South America")</f>
         <v>0</v>
       </c>
       <c r="D22" s="6">
@@ -1811,36 +1806,36 @@
       <c r="E22" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="22">
+      <c r="H22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="13">
         <f>I10/$B$10</f>
         <v>0</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="14">
         <f>J10/$B$10</f>
         <v>0</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="14">
         <f>K10/$B$10</f>
         <v>0</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="14">
         <f>L10/$B$10</f>
         <v>0</v>
       </c>
-      <c r="M22" s="24">
+      <c r="M22" s="15">
         <f>M10/$B$10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>73</v>
       </c>
       <c r="B23" s="1">
-        <f>COUNTIFS(Data!H2:H1048576,"Southern Asia",Data!H2:H1048576,"Eastern Asia",Data!H2:H1048576,"South-Eastern Asia",Data!H2:H1048576,"Melanesia")</f>
+        <f>COUNTIFS(Data!I2:I1048576,"Southern Asia",Data!I2:I1048576,"Eastern Asia",Data!I2:I1048576,"South-Eastern Asia",Data!I2:I1048576,"Melanesia")</f>
         <v>0</v>
       </c>
       <c r="D23" s="6">
@@ -1850,13 +1845,36 @@
       <c r="E23" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1">
+      <c r="H23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="13">
+        <f>I11/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
+        <f>J11/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="14">
+        <f>K11/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="14">
+        <f>L11/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="15">
+        <f>M11/$B$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>74</v>
       </c>
       <c r="B24" s="1">
-        <f>COUNTIFS(Data!H2:H1048576,"Australia and New Zealand",Data!H2:H1048576,"Polynesia",Data!H2:H1048576,"Micronesia")</f>
+        <f>COUNTIFS(Data!I2:I1048576,"Australia and New Zealand",Data!I2:I1048576,"Polynesia",Data!I2:I1048576,"Micronesia")</f>
         <v>0</v>
       </c>
       <c r="D24" s="6">
@@ -1866,13 +1884,36 @@
       <c r="E24" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1">
+      <c r="H24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="16">
+        <f>I12/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
+        <f>J12/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="17">
+        <f>K12/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="17">
+        <f>L12/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="18">
+        <f>M12/$B$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>75</v>
       </c>
       <c r="B25" s="1">
-        <f>COUNTIF(Data!H2:H1048576,"Northern Europe")</f>
+        <f>COUNTIF(Data!I2:I1048576,"Northern Europe")</f>
         <v>0</v>
       </c>
       <c r="D25" s="6">
@@ -1883,12 +1924,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>76</v>
       </c>
       <c r="B26" s="1">
-        <f>COUNTIF(Data!H2:H1048576,"Southern Europe")</f>
+        <f>COUNTIF(Data!I2:I1048576,"Southern Europe")</f>
         <v>0</v>
       </c>
       <c r="D26" s="6">
@@ -1899,12 +1940,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>77</v>
       </c>
       <c r="B27" s="1">
-        <f>COUNTIF(Data!H2:H1048576,"Western Europe")</f>
+        <f>COUNTIF(Data!I2:I1048576,"Western Europe")</f>
         <v>0</v>
       </c>
       <c r="D27" s="6">
@@ -1915,12 +1956,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>83</v>
       </c>
       <c r="B28" s="1">
-        <f>COUNTIF(Data!H2:H1048576,"Eastern Europe")</f>
+        <f>COUNTIF(Data!I2:I1048576,"Eastern Europe")</f>
         <v>0</v>
       </c>
       <c r="D28" s="6">
@@ -1931,12 +1972,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>78</v>
       </c>
       <c r="B29" s="1">
-        <f>COUNTIF(Data!H2:H1048576,"Western Asia")</f>
+        <f>COUNTIF(Data!I2:I1048576,"Western Asia")</f>
         <v>0</v>
       </c>
       <c r="D29" s="6">
@@ -1947,12 +1988,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>79</v>
       </c>
       <c r="B30" s="1">
-        <f>COUNTIF(Data!H2:H1048576,"Central Asia")</f>
+        <f>COUNTIF(Data!I2:I1048576,"Central Asia")</f>
         <v>0</v>
       </c>
       <c r="D30" s="6">
@@ -1963,12 +2004,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>69</v>
       </c>
       <c r="B31" s="1">
-        <f>COUNTIF(Data!H2:H1048576,"Northern Africa")</f>
+        <f>COUNTIF(Data!I2:I1048576,"Northern Africa")</f>
         <v>0</v>
       </c>
       <c r="D31" s="6">
@@ -1979,12 +2020,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="1">
-        <f>COUNTIFS(Data!H2:H1048576,"Middle Africa",Data!H2:H1048576,"Western Africa",Data!H2:H1048576,"Eastern Africa")</f>
+        <f>COUNTIFS(Data!I2:I1048576,"Middle Africa",Data!I2:I1048576,"Western Africa",Data!I2:I1048576,"Eastern Africa")</f>
         <v>0</v>
       </c>
       <c r="D32" s="6">
@@ -1995,12 +2036,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>80</v>
       </c>
       <c r="B33" s="1">
-        <f>COUNTIF(Data!H2:H1048576,"Southern Africa")</f>
+        <f>COUNTIF(Data!I2:I1048576,"Southern Africa")</f>
         <v>0</v>
       </c>
       <c r="D33" s="6">
@@ -2011,10 +2052,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1">
+    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>50</v>
       </c>
@@ -2025,15 +2066,15 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>87</v>
       </c>
       <c r="B37" s="1">
-        <f>COUNTIF(Data!P2:P1048576,"Yes")</f>
+        <f>COUNTIF(Data!Q2:Q1048576,"Yes")</f>
         <v>0</v>
       </c>
       <c r="D37" s="6">
@@ -2044,12 +2085,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>88</v>
       </c>
       <c r="B38" s="1">
-        <f>COUNTIF(Data!S2:S1048576,"Yes")</f>
+        <f>COUNTIF(Data!T2:T1048576,"Yes")</f>
         <v>0</v>
       </c>
       <c r="D38" s="6">
@@ -2060,12 +2101,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>89</v>
       </c>
       <c r="B39" s="1">
-        <f>COUNTIF(Data!V2:V1048576,"Yes")</f>
+        <f>COUNTIF(Data!W2:W1048576,"Yes")</f>
         <v>0</v>
       </c>
       <c r="D39" s="6">
@@ -2076,12 +2117,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>90</v>
       </c>
       <c r="B40" s="1">
-        <f>COUNTIF(Data!Y2:Y1048576,"Yes")</f>
+        <f>COUNTIF(Data!Z2:Z1048576,"Yes")</f>
         <v>0</v>
       </c>
       <c r="D40" s="6">
@@ -2092,77 +2133,86 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
       <c r="B42" s="4">
-        <f>SUM(Data!Q2:Q1048576)</f>
+        <f>SUM(Data!R2:R1048576)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
       <c r="B43" s="3">
-        <f>SUM(Data!T2:T1048576)</f>
+        <f>SUM(Data!U2:U1048576)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
       <c r="B44" s="5">
-        <f>SUM(Data!W2:W1048576)</f>
+        <f>SUM(Data!X2:X1048576)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
       <c r="B45" s="3">
-        <f>SUM(Data!Z2:Z1048576)</f>
+        <f>SUM(Data!AA2:AA1048576)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="4" t="e">
-        <f>AVERAGEIFS(Data!Q2:Q1048576,Data!P2:P1048576,"Yes")</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1">
+        <v>131</v>
+      </c>
+      <c r="B47" s="19">
+        <f>IFERROR(AVERAGEIFS(Data!R2:R1048576,Data!Q2:Q1048576,"Yes"),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1">
+        <v>130</v>
+      </c>
+      <c r="B48" s="20">
+        <f>IFERROR(AVERAGEIFS(Data!U2:U1048576,Data!T2:T1048576,"Yes"),)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1">
+        <v>132</v>
+      </c>
+      <c r="B49" s="21">
+        <f>IFERROR(AVERAGEIFS(Data!X2:X1048576,Data!W2:W1048576,"Yes"),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>137</v>
-      </c>
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1"/>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1">
+        <v>133</v>
+      </c>
+      <c r="B50" s="20">
+        <f>IFERROR(AVERAGEIFS(Data!AA2:AA1048576,Data!Z2:Z1048576,"Yes"),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>66</v>
       </c>
@@ -2173,28 +2223,28 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D54" s="6" t="e">
+      <c r="B54" s="1">
+        <f>COUNTIF(Data!CH2:CH1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="6">
         <f>$B54/$B$10</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="E54" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>92</v>
       </c>
       <c r="B55" s="1">
-        <f>COUNTIF(Data!CG2:CG1048576,"Yes")</f>
+        <f>COUNTIF(Data!CI2:CI1048576,"Yes")</f>
         <v>0</v>
       </c>
       <c r="D55" s="6">
@@ -2205,12 +2255,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>93</v>
       </c>
       <c r="B56" s="1">
-        <f>COUNTIF(Data!CH2:CH1048576,"Yes")</f>
+        <f>COUNTIF(Data!CJ2:CJ1048576,"Yes")</f>
         <v>0</v>
       </c>
       <c r="D56" s="6">
@@ -2221,12 +2271,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>94</v>
       </c>
       <c r="B57" s="1">
-        <f>COUNTIF(Data!CI2:CI1048576,"Yes")</f>
+        <f>COUNTIF(Data!CK2:CK1048576,"Yes")</f>
         <v>0</v>
       </c>
       <c r="D57" s="6">
@@ -2237,12 +2287,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>95</v>
       </c>
       <c r="B58" s="1">
-        <f>COUNTIF(Data!CJ2:CJ1048576,"Yes")</f>
+        <f>COUNTIF(Data!CL2:CL1048576,"Yes")</f>
         <v>0</v>
       </c>
       <c r="D58" s="6">
@@ -2253,7 +2303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15">
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>72</v>
       </c>
@@ -2264,12 +2314,12 @@
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>96</v>
       </c>
       <c r="B61" s="1">
-        <f>COUNTIF(Data!CK2:CK1048576,"A")</f>
+        <f>COUNTIF(Data!CM2:CM1048576,"A-customer")</f>
         <v>0</v>
       </c>
       <c r="D61" s="6">
@@ -2280,12 +2330,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>97</v>
       </c>
       <c r="B62" s="1">
-        <f>COUNTIF(Data!CK2:CK1048576,"B")</f>
+        <f>COUNTIF(Data!CM2:CM1048576,"B-customer")</f>
         <v>0</v>
       </c>
       <c r="D62" s="6">
@@ -2296,12 +2346,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>98</v>
       </c>
       <c r="B63" s="1">
-        <f>COUNTIF(Data!CK2:CK1048576,"C")</f>
+        <f>COUNTIF(Data!CM2:CM1048576,"C-customer")</f>
         <v>0</v>
       </c>
       <c r="D63" s="6">
@@ -2312,159 +2362,163 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B65" s="1"/>
       <c r="D65" s="6"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B66" s="1"/>
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>101</v>
       </c>
-      <c r="B67" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D67" s="6" t="e">
+      <c r="B67" s="1">
+        <f>COUNTIF(Data!CO2:CO1048576,"&lt; 6 months")</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="6">
         <f>$B67/$B$10</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="E67" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>102</v>
       </c>
-      <c r="B68" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D68" s="6" t="e">
+      <c r="B68" s="1">
+        <f>COUNTIF(Data!CO2:CO1048576,"6~12 months")</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="6">
         <f>$B68/$B$10</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="E68" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>103</v>
       </c>
-      <c r="B69" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D69" s="6" t="e">
+      <c r="B69" s="1">
+        <f>COUNTIF(Data!CO2:CO1048576,"1~2 years")</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="6">
         <f>$B69/$B$10</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="E69" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>104</v>
       </c>
-      <c r="B70" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D70" s="6" t="e">
+      <c r="B70" s="1">
+        <f>COUNTIF(Data!CO2:CO1048576,"&gt; 2 years")</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="6">
         <f>$B70/$B$10</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="E70" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>105</v>
       </c>
-      <c r="B71" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D71" s="6" t="e">
+      <c r="B71" s="1">
+        <f>COUNTIF(Data!CO2:CO1048576,"&gt; 5 years")</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="6">
         <f>$B71/$B$10</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="E71" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D73" s="6" t="e">
+      <c r="B73" s="1">
+        <f>COUNTIF(Data!CN2:CN1048576,"Weekly")</f>
+        <v>0</v>
+      </c>
+      <c r="D73" s="6">
         <f>$B73/$B$10</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="E73" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>107</v>
       </c>
-      <c r="B74" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D74" s="6" t="e">
+      <c r="B74" s="1">
+        <f>COUNTIF(Data!CN2:CN1048576,"Monthly")</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="6">
         <f>$B74/$B$10</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="E74" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>109</v>
       </c>
-      <c r="B75" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D75" s="6" t="e">
+      <c r="B75" s="1">
+        <f>COUNTIF(Data!CN2:CN1048576,"Quarterly")</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="6">
         <f>$B75/$B$10</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="E75" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D76" s="6" t="e">
+      <c r="B76" s="1">
+        <f>COUNTIF(Data!CN2:CN1048576,"Yearly")</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="6">
         <f>$B76/$B$10</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="E76" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75" thickBot="1">
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>110</v>
       </c>
@@ -2475,73 +2529,73 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>111</v>
-      </c>
-      <c r="B80" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D80" s="6" t="e">
+        <v>204</v>
+      </c>
+      <c r="B80" s="1">
+        <f>COUNTIF(Data!CQ2:CQ1048576,"1~2")</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="6">
         <f>$B80/$B$10</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="E80" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>112</v>
-      </c>
-      <c r="B81" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D81" s="6" t="e">
+        <v>205</v>
+      </c>
+      <c r="B81" s="1">
+        <f>COUNTIF(Data!CQ2:CQ1048576,"4~6")</f>
+        <v>0</v>
+      </c>
+      <c r="D81" s="6">
         <f>$B81/$B$10</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="E81" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>113</v>
-      </c>
-      <c r="B82" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D82" s="6" t="e">
+        <v>206</v>
+      </c>
+      <c r="B82" s="1">
+        <f>COUNTIF(Data!CQ2:CQ1048576,"7~10")</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="6">
         <f>$B82/$B$10</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="E82" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>114</v>
-      </c>
-      <c r="B83" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D83" s="6" t="e">
+        <v>207</v>
+      </c>
+      <c r="B83" s="1">
+        <f>COUNTIF(Data!CQ2:CQ1048576,"&gt;10")</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="6">
         <f>$B83/$B$10</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="E83" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" thickBot="1">
+    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -2550,201 +2604,201 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" s="1">
+        <f>COUNTIF(Data!CR2:CR1048576,"1")</f>
+        <v>0</v>
+      </c>
+      <c r="D87" s="6">
+        <f>$B87/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" s="1">
+        <f>COUNTIF(Data!CR2:CR1048576,"1~2")</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="6">
+        <f>$B88/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" s="1">
+        <f>COUNTIF(Data!CR2:CR1048576,"2~3")</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="6">
+        <f>$B89/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" s="1">
+        <f>COUNTIF(Data!CR2:CR1048576,"&gt;3")</f>
+        <v>0</v>
+      </c>
+      <c r="D90" s="6">
+        <f>$B90/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>115</v>
       </c>
-      <c r="B87" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D87" s="6" t="e">
-        <f>$B87/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" t="s">
+      <c r="B91" s="1">
+        <f>COUNTIFS(Data!CR2:CR1048576,"Unknown",Data!CR2:CR1048576,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D91" s="6">
+        <f>$B91/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="1">
+        <f>COUNTIF(Data!CR2:CR1048576,"Price competitiveness")</f>
+        <v>0</v>
+      </c>
+      <c r="D93" s="6">
+        <f>$B93/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>118</v>
       </c>
-      <c r="B88" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D88" s="6" t="e">
-        <f>$B88/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" t="s">
-        <v>117</v>
-      </c>
-      <c r="B89" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D89" s="6" t="e">
-        <f>$B89/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" t="s">
-        <v>116</v>
-      </c>
-      <c r="B90" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D90" s="6" t="e">
-        <f>$B90/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E90" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s">
+      <c r="B94" s="1">
+        <f>COUNTIF(Data!CR2:CR1048576,"History with the company")</f>
+        <v>0</v>
+      </c>
+      <c r="D94" s="6">
+        <f>$B94/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>119</v>
       </c>
-      <c r="B91" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D91" s="6" t="e">
-        <f>$B91/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E91" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" t="s">
+      <c r="B95" s="1">
+        <f>COUNTIF(Data!CR2:CR1048576,"Ability to answer to all lanes")</f>
+        <v>0</v>
+      </c>
+      <c r="D95" s="6">
+        <f>$B95/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>120</v>
+      </c>
+      <c r="B96" s="1">
+        <f>COUNTIF(Data!CR2:CR1048576,"Ability to provide an extended offer")</f>
+        <v>0</v>
+      </c>
+      <c r="D96" s="6">
+        <f>$B96/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>121</v>
       </c>
-      <c r="B93" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D93" s="6" t="e">
-        <f>$B93/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E93" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" t="s">
+      <c r="B97" s="1">
+        <f>COUNTIFS(Data!CR2:CR1048576,"Unknown",Data!CR2:CR1048576,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D97" s="6">
+        <f>$B97/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>122</v>
       </c>
-      <c r="B94" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D94" s="6" t="e">
-        <f>$B94/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E94" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" t="s">
+      <c r="B99" s="1">
+        <f>COUNTIF(Data!CT2:CT1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="D99" s="6">
+        <f>$B99/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>123</v>
       </c>
-      <c r="B95" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D95" s="6" t="e">
-        <f>$B95/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E95" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" t="s">
-        <v>124</v>
-      </c>
-      <c r="B96" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D96" s="6" t="e">
-        <f>$B96/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E96" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" t="s">
+      <c r="B100" s="1">
+        <f>COUNTIF(Data!CT2:CT1048576,"No")</f>
+        <v>0</v>
+      </c>
+      <c r="D100" s="6">
+        <f>$B100/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B97" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D97" s="6" t="e">
-        <f>$B97/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E97" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" t="s">
-        <v>126</v>
-      </c>
-      <c r="B99" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D99" s="6" t="e">
-        <f>$B99/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E99" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" t="s">
-        <v>127</v>
-      </c>
-      <c r="B100" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D100" s="6" t="e">
-        <f>$B100/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E100" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="18" thickBot="1">
-      <c r="A101" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2753,10 +2807,10 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" ht="15" thickTop="1"/>
-    <row r="103" spans="1:7" ht="15.75" thickBot="1">
+    <row r="102" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -2765,19 +2819,21 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>127</v>
+      </c>
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="15.75" thickBot="1">
+        <v>160</v>
+      </c>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -2786,19 +2842,27 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>128</v>
+      </c>
+      <c r="B110" s="29" t="str">
+        <f>IFERROR(AVERAGEIFS(Data!BQ2:BQ1048576,Data!A2:A1048576,"&lt;&gt;"&amp;""),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="15.75" thickBot="1">
+        <v>129</v>
+      </c>
+      <c r="B111" s="30" t="str">
+        <f>IFERROR(AVERAGEIFS(Data!BR2:BR1048576,Data!A2:A1048576,"&lt;&gt;"&amp;""),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -2807,137 +2871,137 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>138</v>
+      </c>
+      <c r="B115" s="1">
+        <f>COUNTIF(Data!BY2:BY1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="D115" s="6">
+        <f t="shared" ref="D115:D122" si="1">$B115/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>139</v>
+      </c>
+      <c r="B116" s="1">
+        <f>COUNTIF(Data!BZ2:BZ1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="D116" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>140</v>
+      </c>
+      <c r="B117" s="1">
+        <f>COUNTIF(Data!CA2:CA1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="D117" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>141</v>
+      </c>
+      <c r="B118" s="1">
+        <f>COUNTIF(Data!CB2:CB1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="D118" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>142</v>
       </c>
-      <c r="B115" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D115" s="6" t="e">
-        <f>$B115/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E115" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" t="s">
+      <c r="B119" s="1">
+        <f>COUNTIF(Data!CC2:CC1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="D119" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>143</v>
       </c>
-      <c r="B116" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D116" s="6" t="e">
-        <f>$B116/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E116" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" t="s">
+      <c r="B120" s="1">
+        <f>COUNTIF(Data!CD2:CD1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="D120" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>144</v>
       </c>
-      <c r="B117" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D117" s="6" t="e">
-        <f>$B117/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E117" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" t="s">
+      <c r="B121" s="1">
+        <f>COUNTIF(Data!CE2:CE1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="D121" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>145</v>
       </c>
-      <c r="B118" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D118" s="6" t="e">
-        <f>$B118/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E118" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" t="s">
+      <c r="B122" s="1">
+        <f>COUNTIF(Data!BX2:BX1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="D122" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="B119" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D119" s="6" t="e">
-        <f>$B119/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E119" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" t="s">
-        <v>147</v>
-      </c>
-      <c r="B120" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D120" s="6" t="e">
-        <f>$B120/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E120" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" t="s">
-        <v>148</v>
-      </c>
-      <c r="B121" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D121" s="6" t="e">
-        <f>$B121/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E121" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" t="s">
-        <v>149</v>
-      </c>
-      <c r="B122" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D122" s="6" t="e">
-        <f>$B122/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E122" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A124" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -2946,81 +3010,81 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>147</v>
+      </c>
+      <c r="B126" s="1">
+        <f>COUNTIF(Data!BS2:BS1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="D126" s="6">
+        <f>$B126/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>148</v>
+      </c>
+      <c r="B127" s="1">
+        <f>COUNTIF(Data!BT2:BT1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="D127" s="6">
+        <f>$B127/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128" s="1">
+        <f>COUNTIF(Data!BU2:BU1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="D128" s="6">
+        <f>$B128/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>150</v>
+      </c>
+      <c r="B129" s="1">
+        <f>COUNTIF(Data!BV2:BV1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="D129" s="6">
+        <f>$B129/$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>151</v>
       </c>
-      <c r="B126" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D126" s="6" t="e">
-        <f>$B126/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E126" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" t="s">
-        <v>152</v>
-      </c>
-      <c r="B127" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D127" s="6" t="e">
-        <f>$B127/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E127" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" t="s">
-        <v>153</v>
-      </c>
-      <c r="B128" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D128" s="6" t="e">
-        <f>$B128/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E128" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" t="s">
-        <v>154</v>
-      </c>
-      <c r="B129" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D129" s="6" t="e">
-        <f>$B129/$B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E129" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="15">
-      <c r="A130" t="s">
-        <v>155</v>
-      </c>
-      <c r="B130" s="1" t="e">
-        <f>COUNTIF(Data!#REF!,"Yes")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D130" s="6" t="e">
+      <c r="B130" s="1">
+        <f>COUNTIF(Data!BW2:BW1048576,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="D130" s="6">
         <f>$B130/$B$10</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="E130" t="s">
         <v>100</v>
@@ -3040,23 +3104,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408FA63C-ED69-49C0-8A89-D58054A38125}">
-  <dimension ref="A1:CR3"/>
+  <dimension ref="A1:CT3"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="AA1048537" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="95" width="22.875" customWidth="1"/>
-    <col min="96" max="96" width="31.75" customWidth="1"/>
-    <col min="97" max="97" width="28" customWidth="1"/>
-    <col min="98" max="98" width="19" customWidth="1"/>
+    <col min="1" max="98" width="22.875" customWidth="1"/>
+    <col min="99" max="99" width="28" customWidth="1"/>
+    <col min="100" max="100" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3065,286 +3128,292 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>174</v>
+      </c>
+      <c r="W1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD1" t="s">
         <v>157</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="AE1" t="s">
         <v>158</v>
       </c>
-      <c r="L1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M1" t="s">
-        <v>206</v>
-      </c>
-      <c r="N1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="AF1" t="s">
         <v>159</v>
       </c>
-      <c r="P1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="AG1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BQ1" t="s">
         <v>177</v>
       </c>
-      <c r="S1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="BR1" t="s">
         <v>178</v>
       </c>
-      <c r="V1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="BS1" t="s">
         <v>179</v>
       </c>
-      <c r="Y1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="BT1" t="s">
         <v>180</v>
       </c>
-      <c r="AB1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>174</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>175</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BP1" t="s">
+      <c r="BU1" t="s">
         <v>181</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BV1" t="s">
         <v>182</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BW1" t="s">
         <v>183</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BX1" t="s">
         <v>184</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BY1" t="s">
         <v>185</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BZ1" t="s">
         <v>186</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="CA1" t="s">
         <v>187</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CB1" t="s">
         <v>188</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CC1" t="s">
         <v>189</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CD1" t="s">
         <v>190</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CE1" t="s">
         <v>191</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CF1" t="s">
         <v>192</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CG1" t="s">
         <v>193</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CH1" t="s">
+        <v>203</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>40</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>41</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>42</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>43</v>
+      </c>
+      <c r="CN1" t="s">
         <v>194</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CO1" t="s">
         <v>195</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CP1" t="s">
         <v>196</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CQ1" t="s">
         <v>197</v>
       </c>
-      <c r="CG1" t="s">
-        <v>39</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>40</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>41</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>42</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>43</v>
-      </c>
-      <c r="CL1" t="s">
+      <c r="CR1" t="s">
+        <v>208</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>198</v>
+      </c>
+      <c r="CT1" t="s">
         <v>199</v>
       </c>
-      <c r="CM1" t="s">
-        <v>200</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>201</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>202</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>203</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>204</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:96">
+    </row>
+    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3360,40 +3429,37 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="I2">
+      <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="P2">
+      <c r="K2">
         <v>1</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
-      <c r="S2">
+      <c r="R2">
         <v>1</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
-      <c r="V2">
+      <c r="U2">
         <v>1</v>
       </c>
       <c r="W2">
         <v>1</v>
       </c>
-      <c r="Y2">
+      <c r="X2">
         <v>1</v>
       </c>
       <c r="Z2">
         <v>1</v>
       </c>
-      <c r="AL2">
+      <c r="AA2">
         <v>1</v>
       </c>
       <c r="AM2">
@@ -3468,10 +3534,7 @@
       <c r="BJ2">
         <v>1</v>
       </c>
-      <c r="CG2">
-        <v>1</v>
-      </c>
-      <c r="CH2">
+      <c r="BK2">
         <v>1</v>
       </c>
       <c r="CI2">
@@ -3483,8 +3546,14 @@
       <c r="CK2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:96">
+      <c r="CL2">
+        <v>1</v>
+      </c>
+      <c r="CM2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3500,40 +3569,37 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="I3">
+      <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="P3">
+      <c r="K3">
         <v>1</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="S3">
+      <c r="R3">
         <v>1</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
-      <c r="V3">
+      <c r="U3">
         <v>1</v>
       </c>
       <c r="W3">
         <v>1</v>
       </c>
-      <c r="Y3">
+      <c r="X3">
         <v>1</v>
       </c>
       <c r="Z3">
         <v>1</v>
       </c>
-      <c r="AL3">
+      <c r="AA3">
         <v>1</v>
       </c>
       <c r="AM3">
@@ -3608,10 +3674,7 @@
       <c r="BJ3">
         <v>1</v>
       </c>
-      <c r="CG3">
-        <v>1</v>
-      </c>
-      <c r="CH3">
+      <c r="BK3">
         <v>1</v>
       </c>
       <c r="CI3">
@@ -3621,14 +3684,21 @@
         <v>1</v>
       </c>
       <c r="CK3">
+        <v>1</v>
+      </c>
+      <c r="CL3">
+        <v>1</v>
+      </c>
+      <c r="CM3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/reports/templates/reportTemplate_register.xlsx
+++ b/reports/templates/reportTemplate_register.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/712e76bdfa434146/Documents/Projet 02/moonshot/reports/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="972" documentId="13_ncr:1_{BB587B11-3DD4-41F6-9455-588F5FC05102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3520206-101B-41E9-A7E2-2CC48463B786}"/>
+  <xr:revisionPtr revIDLastSave="1004" documentId="13_ncr:1_{BB587B11-3DD4-41F6-9455-588F5FC05102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{185AB6A7-73CD-45F0-96B8-6A382CD199B7}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="18930" windowWidth="21600" windowHeight="11385" xr2:uid="{9DB76FDD-CFE2-43F9-8644-10A1BAD3A1A8}"/>
+    <workbookView xWindow="4215" yWindow="2955" windowWidth="21600" windowHeight="11385" xr2:uid="{9DB76FDD-CFE2-43F9-8644-10A1BAD3A1A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="218">
   <si>
     <t>Preadvise ID</t>
   </si>
@@ -696,6 +696,24 @@
   <si>
     <t>Share of tenders involved in the following tradelanes</t>
   </si>
+  <si>
+    <t>Average time between reception &amp; registration</t>
+  </si>
+  <si>
+    <t>Average time between registration &amp; Deadline Rd.1</t>
+  </si>
+  <si>
+    <t>Outcome Positive</t>
+  </si>
+  <si>
+    <t>Outcome negative</t>
+  </si>
+  <si>
+    <t>Outcome unknown</t>
+  </si>
+  <si>
+    <t>Is over ?</t>
+  </si>
 </sst>
 </file>
 
@@ -705,10 +723,10 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot; TEU(s)&quot;_-;\-* #,##0.00&quot; TEU(s)&quot;_-;_-* &quot;-&quot;??&quot; TEU(s)&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00&quot; Ton(s)&quot;_-;\-* #,##0.00&quot; Ton(s)&quot;_-;_-* &quot;-&quot;??&quot; Ton(s)&quot;_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00&quot; CMB(s)&quot;_-;\-* #,##0.00&quot; CBM(s)&quot;_-;_-* &quot;-&quot;??&quot; CBM(s)&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00&quot; month(s)&quot;_-;\-* #,##0.00&quot; month(s)&quot;_-;_-* &quot;-&quot;??&quot; month(s)&quot;_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0&quot; day(s)&quot;_-;\-* #,##0&quot; day(s)&quot;_-;_-* &quot;-&quot;??&quot; day(s)&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00&quot; month(s)&quot;_-;\-* #,##0.00&quot; month(s)&quot;_-;_-* &quot;-&quot;??&quot; month(s)&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0&quot; day(s)&quot;_-;\-* #,##0&quot; day(s)&quot;_-;_-* &quot;-&quot;??&quot; day(s)&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1011,10 +1029,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1040,9 +1058,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9EF5C85F-01A4-46CF-9039-EFF5C6FFD4F7}" name="DataTable" displayName="DataTable" ref="A1:CT3" totalsRowShown="0">
-  <autoFilter ref="A1:CT3" xr:uid="{9EF5C85F-01A4-46CF-9039-EFF5C6FFD4F7}"/>
-  <tableColumns count="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9EF5C85F-01A4-46CF-9039-EFF5C6FFD4F7}" name="DataTable" displayName="DataTable" ref="A1:CZ3" totalsRowShown="0">
+  <autoFilter ref="A1:CZ3" xr:uid="{9EF5C85F-01A4-46CF-9039-EFF5C6FFD4F7}"/>
+  <tableColumns count="104">
     <tableColumn id="1" xr3:uid="{2CB6E984-6BB5-4D7A-A81F-D0601EB90E6A}" name="Register ID"/>
     <tableColumn id="2" xr3:uid="{6FFAC53E-7EFD-47C3-8EFB-8BCEA51789AA}" name="Record date"/>
     <tableColumn id="3" xr3:uid="{A2764E2D-9117-429E-9F02-FB27FCC1E6DA}" name="Last modified date"/>
@@ -1141,6 +1159,16 @@
     <tableColumn id="43" xr3:uid="{F0A3C84D-B3DA-4A33-B398-CC7FA56D5327}" name="Amount of awardee(s)"/>
     <tableColumn id="95" xr3:uid="{B92014CC-6E49-4451-9E2C-F869F7E1D72A}" name="Decision criteria"/>
     <tableColumn id="96" xr3:uid="{44E237BF-A768-4D13-8426-F53B0C0E94F1}" name="Feedback available"/>
+    <tableColumn id="91" xr3:uid="{F400EDA5-7EA1-4E72-9A69-5D9320F44822}" name="Average time between reception &amp; registration">
+      <calculatedColumnFormula>DATEDIF(DataTable[[#This Row],[Tender reception date]],DataTable[[#This Row],[Record date]],"d")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="100" xr3:uid="{BBDB0AE8-F51A-4459-A0EB-25C7C4A1A773}" name="Average time between registration &amp; Deadline Rd.1">
+      <calculatedColumnFormula>DATEDIF(DataTable[[#This Row],[Record date]],DataTable[[#This Row],[Tender deadline]],"d")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="101" xr3:uid="{867BAAB6-4A29-4B40-B477-9FE8034A8470}" name="Is over ?"/>
+    <tableColumn id="102" xr3:uid="{36ACCB0A-0703-43F6-ABCE-F5FC4CDAE992}" name="Outcome Positive"/>
+    <tableColumn id="103" xr3:uid="{556D5C2B-E560-4D59-AA98-C52AAAFB9392}" name="Outcome negative"/>
+    <tableColumn id="104" xr3:uid="{5A5025E9-A518-44B9-A5DF-106E1ABCBA1A}" name="Outcome unknown"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1351,11 +1379,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F65E63-F005-4CBF-AE0A-8C9CDC031092}">
   <dimension ref="A1:P130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A64" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="60.125" customWidth="1"/>
     <col min="2" max="2" width="24.25" customWidth="1"/>
@@ -1364,7 +1392,7 @@
     <col min="8" max="13" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -1386,10 +1414,10 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="15" customHeight="1" thickTop="1">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1406,19 +1434,19 @@
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" customHeight="1">
       <c r="B5" s="1"/>
       <c r="H5" s="28" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>124</v>
       </c>
@@ -1429,7 +1457,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15" customHeight="1" thickTop="1">
       <c r="B7" s="1"/>
       <c r="I7" s="8" t="s">
         <v>61</v>
@@ -1447,7 +1475,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
@@ -1481,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="15" customHeight="1">
       <c r="B9" s="1"/>
       <c r="H9" s="11" t="s">
         <v>57</v>
@@ -1507,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -1539,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="15" customHeight="1">
       <c r="B11" s="1"/>
       <c r="H11" s="11" t="s">
         <v>59</v>
@@ -1565,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12" t="s">
         <v>134</v>
       </c>
@@ -1604,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="15" customHeight="1">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -1620,7 +1648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="15" customHeight="1">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -1630,7 +1658,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" customHeight="1">
       <c r="B15" s="1"/>
       <c r="H15" s="10" t="s">
         <v>71</v>
@@ -1644,7 +1672,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="15" customHeight="1">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -1660,7 +1688,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" customHeight="1">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -1679,7 +1707,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15" customHeight="1">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -1695,7 +1723,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15" customHeight="1">
       <c r="B19" s="1"/>
       <c r="I19" s="8" t="s">
         <v>61</v>
@@ -1713,7 +1741,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15" customHeight="1">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -1732,27 +1760,27 @@
         <v>56</v>
       </c>
       <c r="I20" s="13">
-        <f>I8/$B$10</f>
+        <f t="shared" ref="I20:M24" si="1">I8/$B$10</f>
         <v>0</v>
       </c>
       <c r="J20" s="14">
-        <f>J8/$B$10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20" s="14">
-        <f>K8/$B$10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L20" s="14">
-        <f>L8/$B$10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M20" s="15">
-        <f>M8/$B$10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -1771,27 +1799,27 @@
         <v>57</v>
       </c>
       <c r="I21" s="13">
-        <f>I9/$B$10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J21" s="14">
-        <f>J9/$B$10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K21" s="14">
-        <f>K9/$B$10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L21" s="14">
-        <f>L9/$B$10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M21" s="15">
-        <f>M9/$B$10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -1810,27 +1838,27 @@
         <v>58</v>
       </c>
       <c r="I22" s="13">
-        <f>I10/$B$10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J22" s="14">
-        <f>J10/$B$10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22" s="14">
-        <f>K10/$B$10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L22" s="14">
-        <f>L10/$B$10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M22" s="15">
-        <f>M10/$B$10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -1849,27 +1877,27 @@
         <v>59</v>
       </c>
       <c r="I23" s="13">
-        <f>I11/$B$10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23" s="14">
-        <f>J11/$B$10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="14">
-        <f>K11/$B$10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L23" s="14">
-        <f>L11/$B$10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M23" s="15">
-        <f>M11/$B$10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -1888,27 +1916,27 @@
         <v>60</v>
       </c>
       <c r="I24" s="16">
-        <f>I12/$B$10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J24" s="17">
-        <f>J12/$B$10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" s="17">
-        <f>K12/$B$10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L24" s="17">
-        <f>L12/$B$10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M24" s="18">
-        <f>M12/$B$10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -1924,7 +1952,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15" customHeight="1">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -1940,7 +1968,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="15" customHeight="1">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1956,7 +1984,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="15" customHeight="1">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -1972,7 +2000,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15" customHeight="1">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -1988,7 +2016,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="15" customHeight="1">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -2004,7 +2032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="15" customHeight="1">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -2020,7 +2048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="15" customHeight="1">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -2036,7 +2064,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -2052,10 +2080,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A35" s="7" t="s">
         <v>50</v>
       </c>
@@ -2066,10 +2094,10 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -2085,7 +2113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -2101,7 +2129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -2117,7 +2145,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -2133,10 +2161,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="15" customHeight="1">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -2145,7 +2173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15" customHeight="1">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2154,7 +2182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="15" customHeight="1">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -2163,7 +2191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="15" customHeight="1">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -2172,10 +2200,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="15" customHeight="1">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="15" customHeight="1">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -2184,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="15" customHeight="1">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -2193,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="15" customHeight="1">
       <c r="A49" t="s">
         <v>132</v>
       </c>
@@ -2202,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="15" customHeight="1">
       <c r="A50" t="s">
         <v>133</v>
       </c>
@@ -2211,8 +2239,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="15" customHeight="1"/>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1">
       <c r="A52" s="7" t="s">
         <v>66</v>
       </c>
@@ -2223,7 +2251,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="15">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -2239,7 +2267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="15">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -2255,7 +2283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="15">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -2271,7 +2299,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="15">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -2287,7 +2315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="15">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -2303,7 +2331,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15">
       <c r="A60" s="10" t="s">
         <v>72</v>
       </c>
@@ -2314,7 +2342,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="15">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -2330,7 +2358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="15">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -2346,7 +2374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="15">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -2362,19 +2390,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="15">
       <c r="B64" s="1"/>
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="15">
       <c r="B65" s="1"/>
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="15">
       <c r="B66" s="1"/>
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="15">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -2390,7 +2418,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="15">
       <c r="A68" t="s">
         <v>102</v>
       </c>
@@ -2406,7 +2434,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="15">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -2422,7 +2450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="15">
       <c r="A70" t="s">
         <v>104</v>
       </c>
@@ -2438,7 +2466,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="15">
       <c r="A71" t="s">
         <v>105</v>
       </c>
@@ -2454,7 +2482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="15">
       <c r="A73" t="s">
         <v>106</v>
       </c>
@@ -2470,7 +2498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="15">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -2486,7 +2514,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="15">
       <c r="A75" t="s">
         <v>109</v>
       </c>
@@ -2502,7 +2530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="15">
       <c r="A76" t="s">
         <v>108</v>
       </c>
@@ -2518,7 +2546,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="15.75" thickBot="1">
       <c r="A78" s="7" t="s">
         <v>110</v>
       </c>
@@ -2529,7 +2557,7 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="15">
       <c r="A80" t="s">
         <v>204</v>
       </c>
@@ -2545,7 +2573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="15">
       <c r="A81" t="s">
         <v>205</v>
       </c>
@@ -2561,7 +2589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="15">
       <c r="A82" t="s">
         <v>206</v>
       </c>
@@ -2577,7 +2605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="15">
       <c r="A83" t="s">
         <v>207</v>
       </c>
@@ -2593,7 +2621,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="15.75" thickBot="1">
       <c r="A85" s="7" t="s">
         <v>116</v>
       </c>
@@ -2604,7 +2632,7 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="15">
       <c r="A87" t="s">
         <v>111</v>
       </c>
@@ -2620,7 +2648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="15">
       <c r="A88" t="s">
         <v>114</v>
       </c>
@@ -2636,7 +2664,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="15">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -2652,7 +2680,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="15">
       <c r="A90" t="s">
         <v>112</v>
       </c>
@@ -2668,7 +2696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="15">
       <c r="A91" t="s">
         <v>115</v>
       </c>
@@ -2684,7 +2712,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="15">
       <c r="A93" t="s">
         <v>117</v>
       </c>
@@ -2700,7 +2728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="15">
       <c r="A94" t="s">
         <v>118</v>
       </c>
@@ -2716,7 +2744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="15">
       <c r="A95" t="s">
         <v>119</v>
       </c>
@@ -2732,7 +2760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="15">
       <c r="A96" t="s">
         <v>120</v>
       </c>
@@ -2748,7 +2776,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="15">
       <c r="A97" t="s">
         <v>121</v>
       </c>
@@ -2764,7 +2792,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="15" customHeight="1">
       <c r="A99" t="s">
         <v>122</v>
       </c>
@@ -2780,7 +2808,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="15">
       <c r="A100" t="s">
         <v>123</v>
       </c>
@@ -2796,7 +2824,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="17.25" thickBot="1">
       <c r="A101" s="2" t="s">
         <v>125</v>
       </c>
@@ -2807,8 +2835,8 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="15" thickTop="1"/>
+    <row r="103" spans="1:7" ht="15.75" thickBot="1">
       <c r="A103" s="7" t="s">
         <v>126</v>
       </c>
@@ -2819,19 +2847,25 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="15">
       <c r="A105" t="s">
         <v>127</v>
       </c>
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B105" s="30">
+        <f>IFERROR(AVERAGE(Data!CU:CU),"-")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15">
       <c r="A106" t="s">
         <v>160</v>
       </c>
-      <c r="B106" s="1"/>
-    </row>
-    <row r="108" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="30" t="str">
+        <f>IFERROR(AVERAGE(Data!CV:CV),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" thickBot="1">
       <c r="A108" s="7" t="s">
         <v>136</v>
       </c>
@@ -2842,7 +2876,7 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="15">
       <c r="A110" t="s">
         <v>128</v>
       </c>
@@ -2851,7 +2885,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="15">
       <c r="A111" t="s">
         <v>129</v>
       </c>
@@ -2860,7 +2894,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="15.75" thickBot="1">
       <c r="A113" s="7" t="s">
         <v>137</v>
       </c>
@@ -2871,7 +2905,7 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="15">
       <c r="A115" t="s">
         <v>138</v>
       </c>
@@ -2880,14 +2914,14 @@
         <v>0</v>
       </c>
       <c r="D115" s="6">
-        <f t="shared" ref="D115:D122" si="1">$B115/$B$10</f>
+        <f t="shared" ref="D115:D122" si="2">$B115/$B$10</f>
         <v>0</v>
       </c>
       <c r="E115" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="15">
       <c r="A116" t="s">
         <v>139</v>
       </c>
@@ -2896,14 +2930,14 @@
         <v>0</v>
       </c>
       <c r="D116" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E116" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="15">
       <c r="A117" t="s">
         <v>140</v>
       </c>
@@ -2912,14 +2946,14 @@
         <v>0</v>
       </c>
       <c r="D117" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E117" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="15">
       <c r="A118" t="s">
         <v>141</v>
       </c>
@@ -2928,14 +2962,14 @@
         <v>0</v>
       </c>
       <c r="D118" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E118" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="15">
       <c r="A119" t="s">
         <v>142</v>
       </c>
@@ -2944,14 +2978,14 @@
         <v>0</v>
       </c>
       <c r="D119" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E119" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="15">
       <c r="A120" t="s">
         <v>143</v>
       </c>
@@ -2960,14 +2994,14 @@
         <v>0</v>
       </c>
       <c r="D120" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E120" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="15">
       <c r="A121" t="s">
         <v>144</v>
       </c>
@@ -2976,14 +3010,14 @@
         <v>0</v>
       </c>
       <c r="D121" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E121" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="15">
       <c r="A122" t="s">
         <v>145</v>
       </c>
@@ -2992,14 +3026,14 @@
         <v>0</v>
       </c>
       <c r="D122" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E122" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="15.75" thickBot="1">
       <c r="A124" s="7" t="s">
         <v>146</v>
       </c>
@@ -3010,7 +3044,7 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="15">
       <c r="A126" t="s">
         <v>147</v>
       </c>
@@ -3026,7 +3060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="15">
       <c r="A127" t="s">
         <v>148</v>
       </c>
@@ -3042,7 +3076,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="15">
       <c r="A128" t="s">
         <v>149</v>
       </c>
@@ -3058,7 +3092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" ht="15">
       <c r="A129" t="s">
         <v>150</v>
       </c>
@@ -3074,7 +3108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="15">
       <c r="A130" t="s">
         <v>151</v>
       </c>
@@ -3104,20 +3138,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408FA63C-ED69-49C0-8A89-D58054A38125}">
-  <dimension ref="A1:CT3"/>
+  <dimension ref="A1:CZ3"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1048537" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="CU2" sqref="CU2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="98" width="22.875" customWidth="1"/>
-    <col min="99" max="99" width="28" customWidth="1"/>
-    <col min="100" max="100" width="19" customWidth="1"/>
+    <col min="99" max="104" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:104">
       <c r="A1" t="s">
         <v>152</v>
       </c>
@@ -3412,8 +3445,26 @@
       <c r="CT1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="CU1" t="s">
+        <v>212</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>213</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>217</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>214</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>215</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:104">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3552,8 +3603,16 @@
       <c r="CM2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="CU2">
+        <f>DATEDIF(DataTable[[#This Row],[Tender reception date]],DataTable[[#This Row],[Record date]],"d")</f>
+        <v>1</v>
+      </c>
+      <c r="CV2" t="e">
+        <f>DATEDIF(DataTable[[#This Row],[Record date]],DataTable[[#This Row],[Tender deadline]],"d")</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:104">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3691,6 +3750,14 @@
       </c>
       <c r="CM3">
         <v>1</v>
+      </c>
+      <c r="CU3">
+        <f>DATEDIF(DataTable[[#This Row],[Tender reception date]],DataTable[[#This Row],[Record date]],"d")</f>
+        <v>1</v>
+      </c>
+      <c r="CV3" t="e">
+        <f>DATEDIF(DataTable[[#This Row],[Record date]],DataTable[[#This Row],[Tender deadline]],"d")</f>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>

--- a/reports/templates/reportTemplate_register.xlsx
+++ b/reports/templates/reportTemplate_register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/712e76bdfa434146/Documents/Projet 02/moonshot/reports/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1004" documentId="13_ncr:1_{BB587B11-3DD4-41F6-9455-588F5FC05102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{185AB6A7-73CD-45F0-96B8-6A382CD199B7}"/>
+  <xr:revisionPtr revIDLastSave="1028" documentId="13_ncr:1_{BB587B11-3DD4-41F6-9455-588F5FC05102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB314B04-128E-417D-ACDD-360B22B04290}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="2955" windowWidth="21600" windowHeight="11385" xr2:uid="{9DB76FDD-CFE2-43F9-8644-10A1BAD3A1A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DB76FDD-CFE2-43F9-8644-10A1BAD3A1A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="219">
   <si>
     <t>Preadvise ID</t>
   </si>
@@ -713,6 +713,9 @@
   </si>
   <si>
     <t>Is over ?</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -961,7 +964,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1"/>
@@ -1033,6 +1036,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1379,17 +1385,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F65E63-F005-4CBF-AE0A-8C9CDC031092}">
   <dimension ref="A1:P130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="60.125" customWidth="1"/>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="4.125" customWidth="1"/>
     <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
     <col min="8" max="13" width="17.25" customWidth="1"/>
+    <col min="16" max="16" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
@@ -1421,7 +1427,9 @@
       <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="31" t="s">
+        <v>218</v>
+      </c>
       <c r="H3" s="10" t="s">
         <v>70</v>
       </c>
@@ -1438,7 +1446,9 @@
       <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="31" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1">
       <c r="B5" s="1"/>

--- a/reports/templates/reportTemplate_register.xlsx
+++ b/reports/templates/reportTemplate_register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/712e76bdfa434146/Documents/Projet 02/moonshot/reports/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1028" documentId="13_ncr:1_{BB587B11-3DD4-41F6-9455-588F5FC05102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB314B04-128E-417D-ACDD-360B22B04290}"/>
+  <xr:revisionPtr revIDLastSave="1030" documentId="13_ncr:1_{BB587B11-3DD4-41F6-9455-588F5FC05102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89BC76CB-955B-47D7-8790-75ED6AF9C20F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DB76FDD-CFE2-43F9-8644-10A1BAD3A1A8}"/>
+    <workbookView xWindow="-25035" yWindow="1320" windowWidth="21600" windowHeight="11385" xr2:uid="{9DB76FDD-CFE2-43F9-8644-10A1BAD3A1A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -729,7 +729,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00&quot; month(s)&quot;_-;\-* #,##0.00&quot; month(s)&quot;_-;_-* &quot;-&quot;??&quot; month(s)&quot;_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0&quot; day(s)&quot;_-;\-* #,##0&quot; day(s)&quot;_-;_-* &quot;-&quot;??&quot; day(s)&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1385,9 +1385,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F65E63-F005-4CBF-AE0A-8C9CDC031092}">
   <dimension ref="A1:P130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.125" customWidth="1"/>
     <col min="2" max="2" width="22.875" customWidth="1"/>
@@ -1398,7 +1400,7 @@
     <col min="16" max="16" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -1420,10 +1422,10 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" thickTop="1">
+    <row r="2" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1442,7 +1444,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1450,13 +1452,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="H5" s="28" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>124</v>
       </c>
@@ -1467,7 +1469,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" thickTop="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="I7" s="8" t="s">
         <v>61</v>
@@ -1485,7 +1487,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="8" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
@@ -1519,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="H9" s="11" t="s">
         <v>57</v>
@@ -1545,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -1577,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="H11" s="11" t="s">
         <v>59</v>
@@ -1603,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>134</v>
       </c>
@@ -1642,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -1658,7 +1660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -1668,7 +1670,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="H15" s="10" t="s">
         <v>71</v>
@@ -1682,7 +1684,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -1698,7 +1700,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -1717,7 +1719,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -1733,7 +1735,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="I19" s="8" t="s">
         <v>61</v>
@@ -1751,7 +1753,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -1790,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -1829,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -1868,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -1907,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -1946,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -1962,7 +1964,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -1978,7 +1980,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1994,7 +1996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -2010,7 +2012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -2026,7 +2028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -2042,7 +2044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -2058,7 +2060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -2074,7 +2076,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -2090,10 +2092,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1">
+    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>50</v>
       </c>
@@ -2104,10 +2106,10 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -2123,7 +2125,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -2139,7 +2141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -2155,7 +2157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -2171,10 +2173,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -2183,7 +2185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2192,7 +2194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -2201,7 +2203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -2210,10 +2212,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -2222,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -2231,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1">
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>132</v>
       </c>
@@ -2240,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1">
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>133</v>
       </c>
@@ -2249,8 +2251,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1"/>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1">
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>66</v>
       </c>
@@ -2261,7 +2263,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="54" spans="1:7" ht="15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -2277,7 +2279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -2293,7 +2295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -2309,7 +2311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -2325,7 +2327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -2341,7 +2343,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>72</v>
       </c>
@@ -2352,7 +2354,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="1:7" ht="15">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -2368,7 +2370,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -2384,7 +2386,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -2400,19 +2402,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="1:7" ht="15">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="1:7" ht="15">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="1:7" ht="15">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -2428,7 +2430,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>102</v>
       </c>
@@ -2444,7 +2446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -2460,7 +2462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>104</v>
       </c>
@@ -2476,7 +2478,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>105</v>
       </c>
@@ -2492,7 +2494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>106</v>
       </c>
@@ -2508,7 +2510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -2524,7 +2526,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>109</v>
       </c>
@@ -2540,7 +2542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>108</v>
       </c>
@@ -2556,7 +2558,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75" thickBot="1">
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>110</v>
       </c>
@@ -2567,7 +2569,7 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="80" spans="1:7" ht="15">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>204</v>
       </c>
@@ -2583,7 +2585,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>205</v>
       </c>
@@ -2599,7 +2601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>206</v>
       </c>
@@ -2615,7 +2617,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>207</v>
       </c>
@@ -2631,7 +2633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" thickBot="1">
+    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>116</v>
       </c>
@@ -2642,7 +2644,7 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
     </row>
-    <row r="87" spans="1:7" ht="15">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>111</v>
       </c>
@@ -2658,7 +2660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>114</v>
       </c>
@@ -2674,7 +2676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -2690,7 +2692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>112</v>
       </c>
@@ -2706,7 +2708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>115</v>
       </c>
@@ -2722,7 +2724,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>117</v>
       </c>
@@ -2738,7 +2740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>118</v>
       </c>
@@ -2754,7 +2756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>119</v>
       </c>
@@ -2770,7 +2772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>120</v>
       </c>
@@ -2786,7 +2788,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>121</v>
       </c>
@@ -2802,7 +2804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1">
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>122</v>
       </c>
@@ -2818,7 +2820,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>123</v>
       </c>
@@ -2834,7 +2836,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17.25" thickBot="1">
+    <row r="101" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>125</v>
       </c>
@@ -2845,8 +2847,8 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" ht="15" thickTop="1"/>
-    <row r="103" spans="1:7" ht="15.75" thickBot="1">
+    <row r="102" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>126</v>
       </c>
@@ -2857,25 +2859,25 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
     </row>
-    <row r="105" spans="1:7" ht="15">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>127</v>
       </c>
       <c r="B105" s="30">
-        <f>IFERROR(AVERAGE(Data!CU:CU),"-")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="15">
+        <f>IFERROR(ABS(AVERAGE(Data!CU:CU)),"-")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>160</v>
       </c>
       <c r="B106" s="30" t="str">
-        <f>IFERROR(AVERAGE(Data!CV:CV),"-")</f>
+        <f>IFERROR(ABS(AVERAGE(Data!CV:CV)),"-")</f>
         <v>-</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.75" thickBot="1">
+    <row r="108" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>136</v>
       </c>
@@ -2886,7 +2888,7 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
     </row>
-    <row r="110" spans="1:7" ht="15">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>128</v>
       </c>
@@ -2895,7 +2897,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>129</v>
       </c>
@@ -2904,7 +2906,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15.75" thickBot="1">
+    <row r="113" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>137</v>
       </c>
@@ -2915,7 +2917,7 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
     </row>
-    <row r="115" spans="1:7" ht="15">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>138</v>
       </c>
@@ -2931,7 +2933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>139</v>
       </c>
@@ -2947,7 +2949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>140</v>
       </c>
@@ -2963,7 +2965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>141</v>
       </c>
@@ -2979,7 +2981,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>142</v>
       </c>
@@ -2995,7 +2997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>143</v>
       </c>
@@ -3011,7 +3013,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>144</v>
       </c>
@@ -3027,7 +3029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>145</v>
       </c>
@@ -3043,7 +3045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15.75" thickBot="1">
+    <row r="124" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>146</v>
       </c>
@@ -3054,7 +3056,7 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
     </row>
-    <row r="126" spans="1:7" ht="15">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>147</v>
       </c>
@@ -3070,7 +3072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>148</v>
       </c>
@@ -3086,7 +3088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>149</v>
       </c>
@@ -3102,7 +3104,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>150</v>
       </c>
@@ -3118,7 +3120,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>151</v>
       </c>
@@ -3154,13 +3156,13 @@
       <selection activeCell="CU2" sqref="CU2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="98" width="22.875" customWidth="1"/>
     <col min="99" max="104" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104">
+    <row r="1" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>152</v>
       </c>
@@ -3474,7 +3476,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:104">
+    <row r="2" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3622,7 +3624,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="3" spans="1:104">
+    <row r="3" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>

--- a/reports/templates/reportTemplate_register.xlsx
+++ b/reports/templates/reportTemplate_register.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/712e76bdfa434146/Documents/Projet 02/moonshot/reports/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1030" documentId="13_ncr:1_{BB587B11-3DD4-41F6-9455-588F5FC05102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89BC76CB-955B-47D7-8790-75ED6AF9C20F}"/>
+  <xr:revisionPtr revIDLastSave="1035" documentId="13_ncr:1_{BB587B11-3DD4-41F6-9455-588F5FC05102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DFC8081-9F71-4CE6-9792-8C1885CC7013}"/>
   <bookViews>
-    <workbookView xWindow="-25035" yWindow="1320" windowWidth="21600" windowHeight="11385" xr2:uid="{9DB76FDD-CFE2-43F9-8644-10A1BAD3A1A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DB76FDD-CFE2-43F9-8644-10A1BAD3A1A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -2729,7 +2729,7 @@
         <v>117</v>
       </c>
       <c r="B93" s="1">
-        <f>COUNTIF(Data!CR2:CR1048576,"Price competitiveness")</f>
+        <f>COUNTIF(Data!CS2:CS1048576,"Price competitiveness")</f>
         <v>0</v>
       </c>
       <c r="D93" s="6">
@@ -2745,7 +2745,7 @@
         <v>118</v>
       </c>
       <c r="B94" s="1">
-        <f>COUNTIF(Data!CR2:CR1048576,"History with the company")</f>
+        <f>COUNTIF(Data!CS2:CS1048576,"History with the company")</f>
         <v>0</v>
       </c>
       <c r="D94" s="6">
@@ -2761,7 +2761,7 @@
         <v>119</v>
       </c>
       <c r="B95" s="1">
-        <f>COUNTIF(Data!CR2:CR1048576,"Ability to answer to all lanes")</f>
+        <f>COUNTIF(Data!CS2:CS1048576,"Ability to answer to all lanes")</f>
         <v>0</v>
       </c>
       <c r="D95" s="6">
@@ -2777,7 +2777,7 @@
         <v>120</v>
       </c>
       <c r="B96" s="1">
-        <f>COUNTIF(Data!CR2:CR1048576,"Ability to provide an extended offer")</f>
+        <f>COUNTIF(Data!CS2:CS1048576,"Ability to provide an extended offer")</f>
         <v>0</v>
       </c>
       <c r="D96" s="6">
@@ -2793,7 +2793,7 @@
         <v>121</v>
       </c>
       <c r="B97" s="1">
-        <f>COUNTIFS(Data!CR2:CR1048576,"Unknown",Data!CR2:CR1048576,"")</f>
+        <f>COUNTIFS(Data!CS2:CS1048576,"Unknown",Data!CR2:CR1048576,"")</f>
         <v>0</v>
       </c>
       <c r="D97" s="6">
@@ -3152,7 +3152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408FA63C-ED69-49C0-8A89-D58054A38125}">
   <dimension ref="A1:CZ3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="CM1" workbookViewId="0">
       <selection activeCell="CU2" sqref="CU2"/>
     </sheetView>
   </sheetViews>
